--- a/data/Workbook_edited.xlsx
+++ b/data/Workbook_edited.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandakmayank/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chandakmayank/missingbasti/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3740" yWindow="4060" windowWidth="27780" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="1140" yWindow="2700" windowWidth="27780" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="459">
   <si>
     <t>headline</t>
   </si>
@@ -1379,12 +1379,48 @@
   <si>
     <t>img/kidwai/audio.mp3</t>
   </si>
+  <si>
+    <t>SUBODH</t>
+  </si>
+  <si>
+    <t>Still recovering from the loss of her husband’s death, Mangala has geared up to fight a new war with the eviction, rains, and winter. All her belongings are ruined by rain and children dropped out of school. She complains about the Railway police confiscating their belongings and not reluctant on returning it back.</t>
+  </si>
+  <si>
+    <t>“I got really scared when I heard the noises at 07:00 am in the morning. Not informed about the eviction, I had no option to save my belongings as I was removing my children from the affected spot.” She has already submitted a copy of her Aadhar card and voter Id to the activists demanding aid and a stay order.</t>
+  </si>
+  <si>
+    <t>Subodh points out to a burst water pipeline near the railway tracks, with a single stream of water spraying as the only source of water for 270 families in that area. Inaccessible public toilets (200 m away, across the railway tracks) are the reason people practice open defecation. He is thankful to the NGOs, who contribute to the education of the children in the Basti, although the number of dropouts is large every month.</t>
+  </si>
+  <si>
+    <t>img/pul_mithai/mangala.jpg</t>
+  </si>
+  <si>
+    <t>img/pul_mithai/Mariam.jpg</t>
+  </si>
+  <si>
+    <t>img/pul_mithai/Subodh.jpg</t>
+  </si>
+  <si>
+    <t>MANGALA. From Darbhanga (Bihar)</t>
+  </si>
+  <si>
+    <t>MARIAM. From Bhagalpur (Bihar)</t>
+  </si>
+  <si>
+    <t>img/janpath/pradhan.jpg</t>
+  </si>
+  <si>
+    <t>img/janpath/madan.jpg</t>
+  </si>
+  <si>
+    <t>img/janpath/suresh.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1461,6 +1497,23 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13.5"/>
+      <color rgb="FFCC0000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFCC0000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1500,7 +1553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1569,6 +1622,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1848,9 +1910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AW3" sqref="AW3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2270,15 +2332,33 @@
       <c r="AM2" s="11">
         <v>2017</v>
       </c>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10"/>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10"/>
+      <c r="AN2" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="AO2" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="AP2" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="AR2" s="27" t="s">
+        <v>455</v>
+      </c>
+      <c r="AS2" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="AU2" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="AV2" s="28" t="s">
+        <v>450</v>
+      </c>
       <c r="AW2" s="3"/>
     </row>
     <row r="3" spans="1:191" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2393,31 +2473,31 @@
       <c r="AM3" s="12">
         <v>2010</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AN3" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="AO3" s="18" t="s">
+      <c r="AO3" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="AP3" s="19" t="s">
+      <c r="AP3" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="AR3" s="18" t="s">
+      <c r="AR3" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="AS3" s="19" t="s">
+      <c r="AS3" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AT3" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="AU3" s="18" t="s">
+      <c r="AU3" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="AV3" s="19" t="s">
+      <c r="AV3" s="30" t="s">
         <v>329</v>
       </c>
       <c r="AW3" s="20" t="s">
@@ -3440,15 +3520,33 @@
         <v>209</v>
       </c>
       <c r="AM9" s="10"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
-      <c r="AU9" s="10"/>
-      <c r="AV9" s="10"/>
+      <c r="AN9" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="AO9" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="AP9" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="AR9" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="AS9" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="AT9" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="AU9" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="AV9" s="19" t="s">
+        <v>329</v>
+      </c>
       <c r="AW9" s="3"/>
       <c r="AX9"/>
       <c r="AY9"/>

--- a/data/Workbook_edited.xlsx
+++ b/data/Workbook_edited.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="2700" windowWidth="27780" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="6180" yWindow="720" windowWidth="27780" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Team" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="489">
   <si>
     <t>headline</t>
   </si>
@@ -1415,12 +1415,102 @@
   <si>
     <t>img/janpath/suresh.jpg</t>
   </si>
+  <si>
+    <t>Pradhaan Kidwai nagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the time of eviction the settlement was divided by an arbitary boundary. When divided one part of the settlement fell under the adinistration of NDMC and another under MCD. The area under NDMC got resettled whereas the area under MCD were left to rot besides the nala. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They are living in worst conditions, how bad will it get for them. Kidwai nagar is settled next to a drain with waste accumulations. There is always an unhygenic smell coming from the drain which is a home to many diseases. </t>
+  </si>
+  <si>
+    <t>Kamla Devi</t>
+  </si>
+  <si>
+    <t>sunita and her family suffered a lot in the past. They were homeless after the eviction and made their temporary home on a footpath and stayed there. After 2 years they resettled in kidwainagar again and rebuilt their home.</t>
+  </si>
+  <si>
+    <t>2010-2017</t>
+  </si>
+  <si>
+    <t>Under the scheme for resettlement of JJ Clusters in Delhi, the most recent relocation sites in the past few years have been Dwarka, Rohini, Narela &amp; Savdar Ghevada.</t>
+  </si>
+  <si>
+    <t>Resettlement Scheme</t>
+  </si>
+  <si>
+    <t>Dwarka, as a site of resettlement had vacant plots and farmlands</t>
+  </si>
+  <si>
+    <t>Site Ready</t>
+  </si>
+  <si>
+    <t>Construction of resettlement colonies</t>
+  </si>
+  <si>
+    <t>Construction of EWS Apartment began under Delhi's government's Rehabilitation scheme, but were not allotted.Unoccupied till date.</t>
+  </si>
+  <si>
+    <t>With the increasing demand of rehabilitating JJ Clusters, construction of New EWS Adarsh Apartments began.</t>
+  </si>
+  <si>
+    <t>Allotment</t>
+  </si>
+  <si>
+    <t>People from various camps like Nehru camp, vinod nagr, Kidwai nagar, Lakshmi nagar etc. were allotted flats as per the required the process.</t>
+  </si>
+  <si>
+    <t>Farm Lands in the village of Madanur Khadar</t>
+  </si>
+  <si>
+    <t>The farmers in Madanpur Khadar owned the lands around the small village and used them to grow upto two crops of wheat and pulses</t>
+  </si>
+  <si>
+    <t>DDA Survey Conducted</t>
+  </si>
+  <si>
+    <t>Survey conducted by DDA for Slum Clearence in Bastis of Alaknanda, Nehru Place, Yusuf Sarai, Green Park</t>
+  </si>
+  <si>
+    <t>Petition Signed by Basti Residents</t>
+  </si>
+  <si>
+    <t>Petition signed by Alaknanda residents to remove the slums.</t>
+  </si>
+  <si>
+    <t>Eviction in Bastis</t>
+  </si>
+  <si>
+    <t>People were evicted from the bastis and promised plots in site near Apollo Hospital. The site then shifted to Madanpur Khadar .People mobilised to their allotted plots with their belongings</t>
+  </si>
+  <si>
+    <t>Madanpur Khadar Development Period</t>
+  </si>
+  <si>
+    <t>The society has evolved since 2002 with no facilities and amenities provided during rehabilitation process.</t>
+  </si>
+  <si>
+    <t>Land given by gram panchayat and people started living</t>
+  </si>
+  <si>
+    <t>Peaceful period</t>
+  </si>
+  <si>
+    <t>No eviction/demolitions were done in this period</t>
+  </si>
+  <si>
+    <t>1985-2007</t>
+  </si>
+  <si>
+    <t>People were evicted repeadtedly without notice citing that the land was not theirs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1514,6 +1604,18 @@
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1541,7 +1643,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1549,11 +1651,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1625,12 +1742,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1910,9 +2031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="75" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AT1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AW3" sqref="AW3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="75" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2473,32 +2594,32 @@
       <c r="AM3" s="12">
         <v>2010</v>
       </c>
-      <c r="AN3" s="10" t="s">
+      <c r="AN3" s="11" t="s">
         <v>330</v>
       </c>
       <c r="AO3" s="29" t="s">
-        <v>324</v>
+        <v>459</v>
       </c>
       <c r="AP3" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="AQ3" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="AQ3" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="AR3" s="29" t="s">
-        <v>325</v>
+      <c r="AR3" s="31" t="s">
+        <v>352</v>
       </c>
       <c r="AS3" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="AT3" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="AT3" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="AU3" s="29" t="s">
-        <v>326</v>
+      <c r="AU3" s="30" t="s">
+        <v>462</v>
       </c>
       <c r="AV3" s="30" t="s">
-        <v>329</v>
+        <v>461</v>
       </c>
       <c r="AW3" s="20" t="s">
         <v>446</v>
@@ -3222,21 +3343,51 @@
       <c r="V8" s="10"/>
       <c r="W8" s="10"/>
       <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="10"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
+      <c r="Y8" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="Z8" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>1980</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="AC8" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="AD8" s="11">
+        <v>1990</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="AF8" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>2000</v>
+      </c>
+      <c r="AH8" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="AI8" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>2002</v>
+      </c>
+      <c r="AK8" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="AL8" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>2017</v>
+      </c>
       <c r="AN8" s="11" t="s">
         <v>383</v>
       </c>
@@ -3473,7 +3624,7 @@
       <c r="V9" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="W9" s="11"/>
+      <c r="W9" s="10"/>
       <c r="X9" s="11" t="s">
         <v>135</v>
       </c>
@@ -3519,8 +3670,10 @@
       <c r="AL9" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="AM9" s="10"/>
-      <c r="AN9" s="10" t="s">
+      <c r="AM9" s="11">
+        <v>2016</v>
+      </c>
+      <c r="AN9" s="11" t="s">
         <v>456</v>
       </c>
       <c r="AO9" s="18" t="s">
@@ -3538,7 +3691,7 @@
       <c r="AS9" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="AT9" s="10" t="s">
+      <c r="AT9" s="11" t="s">
         <v>457</v>
       </c>
       <c r="AU9" s="18" t="s">
@@ -3873,21 +4026,51 @@
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10"/>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10"/>
+      <c r="Y11" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="Z11" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>1985</v>
+      </c>
+      <c r="AB11" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="AC11" s="24" t="s">
+        <v>486</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE11" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AF11" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>2008</v>
+      </c>
+      <c r="AH11" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI11" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>2012</v>
+      </c>
+      <c r="AK11" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL11" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>2016</v>
+      </c>
       <c r="AN11" s="10"/>
       <c r="AO11" s="10"/>
       <c r="AP11" s="10"/>
@@ -3923,7 +4106,7 @@
       <c r="G12" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
         <v>263</v>
@@ -3958,21 +4141,51 @@
       <c r="V12" s="10"/>
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10"/>
+      <c r="Y12" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z12" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA12" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="AC12" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="AD12" s="11">
+        <v>2004</v>
+      </c>
+      <c r="AE12" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="AF12" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>2010</v>
+      </c>
+      <c r="AH12" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="AI12" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="AJ12" s="11">
+        <v>2013</v>
+      </c>
+      <c r="AK12" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="AL12" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="AM12" s="11">
+        <v>2016</v>
+      </c>
       <c r="AN12" s="11" t="s">
         <v>392</v>
       </c>
